--- a/04-concat-merge/total3.xlsx
+++ b/04-concat-merge/total3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="19200" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>bu_name</t>
   </si>
@@ -53,12 +53,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,19 +72,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -101,9 +444,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -111,11 +696,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,206 +1035,113 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:E$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2019</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81243701</v>
-      </c>
-      <c r="C2">
-        <v>86331855</v>
-      </c>
-      <c r="D2">
-        <v>92981134</v>
-      </c>
-      <c r="E2">
-        <v>99765421</v>
+        <v>56730549</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>80270322</v>
-      </c>
-      <c r="C3">
-        <v>88025781</v>
-      </c>
-      <c r="D3">
-        <v>92419043</v>
-      </c>
-      <c r="E3">
-        <v>97807211</v>
+        <v>57333429</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>81392359</v>
-      </c>
-      <c r="C4">
-        <v>86585265</v>
-      </c>
-      <c r="D4">
-        <v>92336553</v>
-      </c>
-      <c r="E4">
-        <v>98680427</v>
+        <v>57025416</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>81511075</v>
-      </c>
-      <c r="C5">
-        <v>87385856</v>
-      </c>
-      <c r="D5">
-        <v>93204781</v>
-      </c>
-      <c r="E5">
-        <v>99902325</v>
+        <v>57516801</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>80476711</v>
-      </c>
-      <c r="C6">
-        <v>86738252</v>
-      </c>
-      <c r="D6">
-        <v>93522725</v>
-      </c>
-      <c r="E6">
-        <v>98740072</v>
+        <v>57303312</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>81159999</v>
-      </c>
-      <c r="C7">
-        <v>86100972</v>
-      </c>
-      <c r="D7">
-        <v>92333207</v>
-      </c>
-      <c r="E7">
-        <v>99402597</v>
+        <v>56926536</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>80834661</v>
-      </c>
-      <c r="C8">
-        <v>87818548</v>
-      </c>
-      <c r="D8">
-        <v>93237470</v>
-      </c>
-      <c r="E8">
-        <v>98941062</v>
+        <v>56961676</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>80465701</v>
-      </c>
-      <c r="C9">
-        <v>87327715</v>
-      </c>
-      <c r="D9">
-        <v>92992395</v>
-      </c>
-      <c r="E9">
-        <v>99329977</v>
+        <v>56714264</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>80593100</v>
-      </c>
-      <c r="C10">
-        <v>86920912</v>
-      </c>
-      <c r="D10">
-        <v>93099746</v>
-      </c>
-      <c r="E10">
-        <v>99340785</v>
+        <v>56947196</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80892864</v>
-      </c>
-      <c r="C11">
-        <v>87316248</v>
-      </c>
-      <c r="D11">
-        <v>92761704</v>
-      </c>
-      <c r="E11">
-        <v>98946737</v>
+        <v>57502649</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>